--- a/iselUssSyncV2/OutputWSLorientation/20220524_1152_D50L474W30Q9.5U0.27H44.5G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1152_D50L474W30Q9.5U0.27H44.5G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.020096275991583392</v>
+        <v>0.010048137995791696</v>
       </c>
       <c r="O2" s="0">
-        <v>0.57297127255755953</v>
+        <v>0.28648563627877977</v>
       </c>
       <c r="P2" s="0">
         <v>117.13309999999996</v>
@@ -356,10 +356,10 @@
         <v>1.1490757109999998</v>
       </c>
       <c r="R2" s="0">
-        <v>1.5587674209737252</v>
+        <v>3.1175348419474505</v>
       </c>
       <c r="S2" s="0">
-        <v>0.284246747993881</v>
+        <v>1.5871455526409479</v>
       </c>
       <c r="T2" s="0">
         <v>0.024519296584056539</v>
@@ -383,16 +383,16 @@
         <v>130000</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.73716944268837714</v>
+        <v>0.36858472134418857</v>
       </c>
       <c r="AB2" s="0">
-        <v>4.0425289615793112</v>
+        <v>0.72398886736505241</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.2684870599356568</v>
+        <v>2.1342435299678284</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.0650824324627575</v>
+        <v>1.0325412162313787</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>8.311016021514968</v>
+        <v>2.8582323973328809</v>
       </c>
     </row>
   </sheetData>
